--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BD1DE2-0E98-4081-AFEB-967113E90469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB04F1A-E89F-4D45-8DFF-3838A091F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2205" yWindow="2550" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>500000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB04F1A-E89F-4D45-8DFF-3838A091F463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7595B76-16C4-4758-B953-5F4FA9A8EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2550" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -489,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7595B76-16C4-4758-B953-5F4FA9A8EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581C37A-5E14-40AC-9A22-0551F1522E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2550" windowWidth="32325" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7485" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼열쇠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새외형3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새외형4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -540,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -560,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -570,6 +582,66 @@
       </c>
       <c r="F6">
         <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1210</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1211</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>5000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581C37A-5E14-40AC-9A22-0551F1522E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B2ADD-2C66-4835-A0D8-814232DE72F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="2910" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,11 +83,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>새외형3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새외형4</t>
+    <t>복숭아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -521,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -609,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -617,11 +613,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -629,19 +622,87 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>1210</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>1211</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1212</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1215</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>5000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>500000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7B2ADD-2C66-4835-A0D8-814232DE72F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F62B4B-9704-416C-8AA1-7FCA75218DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="7050" yWindow="5430" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>350000</v>
+        <v>600000</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D13">
         <v>0</v>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F62B4B-9704-416C-8AA1-7FCA75218DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790EA67A-2EFB-4D39-8638-300895DA1D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="5430" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,6 +705,23 @@
         <v>500000</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1214</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>7000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790EA67A-2EFB-4D39-8638-300895DA1D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763D28DC-F621-4259-86EA-C8ADBD20AC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,6 +722,23 @@
         <v>7000000</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1216</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>7000000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763D28DC-F621-4259-86EA-C8ADBD20AC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7351DF-7F39-4FE4-9A5D-43DA882C371C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1290" yWindow="1350" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,6 +85,21 @@
   <si>
     <t>복숭아</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴불꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchangeKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exchangeMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_0</t>
   </si>
 </sst>
 </file>
@@ -448,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -458,9 +473,10 @@
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +495,14 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -499,8 +521,11 @@
       <c r="F2">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -519,8 +544,11 @@
       <c r="F3">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -539,8 +567,11 @@
       <c r="F4">
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -559,8 +590,11 @@
       <c r="F5">
         <v>500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -579,8 +613,11 @@
       <c r="F6">
         <v>500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -599,8 +636,11 @@
       <c r="F7">
         <v>500000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -616,8 +656,11 @@
       <c r="F8">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -633,8 +676,11 @@
       <c r="F9">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -650,8 +696,11 @@
       <c r="F10">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -667,8 +716,11 @@
       <c r="F11">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -684,8 +736,11 @@
       <c r="F12">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -704,8 +759,11 @@
       <c r="F13">
         <v>500000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -721,8 +779,11 @@
       <c r="F14">
         <v>7000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -737,6 +798,55 @@
       </c>
       <c r="F15">
         <v>7000000</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>600</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>500000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1226</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>9000000</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7351DF-7F39-4FE4-9A5D-43DA882C371C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857CAA22-670A-437B-BBE1-F35562C999A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="1350" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -811,7 +811,7 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D16">
         <v>0</v>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857CAA22-670A-437B-BBE1-F35562C999A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276B45C3-3FEE-409E-8C09-1D90798B3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="1350" windowWidth="35610" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -849,6 +849,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1219</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>7000000</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276B45C3-3FEE-409E-8C09-1D90798B3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F8332-2500-4813-88E2-56C8911559F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-23520" yWindow="3150" windowWidth="31605" windowHeight="11490" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -100,6 +100,7 @@
   </si>
   <si>
     <t>ex_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -463,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -869,6 +870,66 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1223</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>7000000</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1224</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>7000000</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1225</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>7000000</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F8332-2500-4813-88E2-56C8911559F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC35A781-2443-419A-B5D8-34A68EF575A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23520" yWindow="3150" windowWidth="31605" windowHeight="11490" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="ChuseokEvent" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,7 +827,7 @@
         <v>16</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/ChuseokEvent.xlsx
+++ b/Assets/06.Table/ChuseokEvent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC35A781-2443-419A-B5D8-34A68EF575A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0CD493-8A5D-4475-AAFB-670FFBDCD664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -930,6 +930,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1229</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>7000000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
